--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/kakatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="34340" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2660" yWindow="660" windowWidth="34340" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="344">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,11 +1603,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未报销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发票已寄出，部分未报账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报账</t>
+  </si>
+  <si>
+    <t>发票已寄出，已报账</t>
+    <rPh sb="6" eb="7">
+      <t>yi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1858,7 +1864,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1961,15 +1967,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,6 +2011,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -2391,7 +2400,7 @@
   <dimension ref="A1:U129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118:H121"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2821,46 +2830,46 @@
       <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" ht="71" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="46"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -3236,49 +3245,49 @@
       <c r="R32" s="17"/>
     </row>
     <row r="33" spans="1:21" s="18" customFormat="1" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
     </row>
     <row r="34" spans="1:21" s="19" customFormat="1" ht="73" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -3812,46 +3821,46 @@
       <c r="R51" s="24"/>
     </row>
     <row r="52" spans="1:18" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="46"/>
     </row>
     <row r="53" spans="1:18" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="46"/>
     </row>
     <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="J54" s="13" t="s">
@@ -4748,17 +4757,17 @@
       </c>
     </row>
     <row r="94" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="55"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="52"/>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>1</v>
       </c>
@@ -4777,8 +4786,8 @@
       <c r="G95" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H95" s="50" t="s">
-        <v>341</v>
+      <c r="H95" s="47" t="s">
+        <v>342</v>
       </c>
       <c r="J95" s="13" t="s">
         <v>258</v>
@@ -4808,7 +4817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -4827,7 +4836,7 @@
       <c r="G96" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H96" s="51"/>
+      <c r="H96" s="48"/>
       <c r="J96" s="13" t="s">
         <v>254</v>
       </c>
@@ -4856,7 +4865,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -4875,7 +4884,7 @@
       <c r="G97" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H97" s="51"/>
+      <c r="H97" s="48"/>
       <c r="J97" s="13" t="s">
         <v>281</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -4923,7 +4932,7 @@
       <c r="G98" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H98" s="51"/>
+      <c r="H98" s="48"/>
       <c r="J98" s="13" t="s">
         <v>285</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>5</v>
       </c>
@@ -4971,7 +4980,7 @@
       <c r="G99" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H99" s="51"/>
+      <c r="H99" s="48"/>
       <c r="Q99" s="15" t="s">
         <v>280</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>6</v>
       </c>
@@ -4998,7 +5007,7 @@
       <c r="G100" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H100" s="51"/>
+      <c r="H100" s="48"/>
       <c r="Q100" s="15" t="s">
         <v>281</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>7</v>
       </c>
@@ -5025,7 +5034,7 @@
       <c r="G101" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="52"/>
+      <c r="H101" s="49"/>
       <c r="Q101" s="15" t="s">
         <v>285</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>1266.2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="C102" s="34"/>
       <c r="D102" s="25">
         <v>146</v>
@@ -5045,7 +5054,7 @@
         <v>9522.2000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="B103" s="3" t="s">
         <v>302</v>
       </c>
@@ -5061,11 +5070,11 @@
       <c r="G103" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H103" s="50" t="s">
+      <c r="H103" s="47" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
         <v>306</v>
       </c>
@@ -5081,9 +5090,9 @@
       <c r="G104" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H104" s="51"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H104" s="48"/>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>8</v>
       </c>
@@ -5102,15 +5111,15 @@
       <c r="G105" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H105" s="52"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H105" s="49"/>
+    </row>
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="C106" s="34"/>
       <c r="D106" s="25">
         <v>4413</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>9</v>
       </c>
@@ -5130,13 +5139,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="C108" s="34"/>
       <c r="D108" s="25">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>10</v>
       </c>
@@ -5159,13 +5168,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="C110" s="34"/>
       <c r="D110" s="25">
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>11</v>
       </c>
@@ -5184,11 +5193,11 @@
       <c r="G111" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H111" s="41" t="s">
+      <c r="H111" s="38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>12</v>
       </c>
@@ -5207,9 +5216,9 @@
       <c r="G112" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H112" s="42"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H112" s="39"/>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>13</v>
       </c>
@@ -5228,9 +5237,9 @@
       <c r="G113" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="42"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H113" s="39"/>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>14</v>
       </c>
@@ -5249,16 +5258,16 @@
       <c r="G114" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="43"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H114" s="40"/>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="D115" s="25">
         <v>1166.2</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>18</v>
       </c>
@@ -5281,10 +5290,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="D117" s="10"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>19</v>
       </c>
@@ -5297,11 +5306,11 @@
       <c r="E118" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H118" s="41" t="s">
+      <c r="H118" s="38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>20</v>
       </c>
@@ -5314,9 +5323,9 @@
       <c r="E119" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H119" s="42"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H119" s="39"/>
+    </row>
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>21</v>
       </c>
@@ -5329,37 +5338,37 @@
       <c r="E120" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H120" s="42"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H120" s="39"/>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="D121" s="25">
         <v>278</v>
       </c>
-      <c r="H121" s="43"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A122" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="39"/>
-      <c r="O122" s="39"/>
-      <c r="P122" s="39"/>
-      <c r="Q122" s="39"/>
-      <c r="R122" s="40"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H121" s="40"/>
+    </row>
+    <row r="122" spans="1:18" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
+      <c r="P122" s="56"/>
+      <c r="Q122" s="56"/>
+      <c r="R122" s="56"/>
+    </row>
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -5491,7 +5500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="B126" s="17" t="s">
         <v>339</v>
       </c>
@@ -5524,7 +5533,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
       <c r="Q127" s="15" t="s">
         <v>336</v>
       </c>
@@ -5550,8 +5571,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A122:R122"/>
+  <mergeCells count="13">
+    <mergeCell ref="A127:J127"/>
     <mergeCell ref="H118:H121"/>
     <mergeCell ref="A33:R33"/>
     <mergeCell ref="A16:R16"/>
@@ -5563,6 +5584,7 @@
     <mergeCell ref="H111:H114"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="H103:H105"/>
+    <mergeCell ref="A122:J122"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
